--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/67/word_level_predictions_67.xlsx
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G183" s="2" t="b">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/67/word_level_predictions_67.xlsx
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G183" s="2" t="b">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
